--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05163712701196882</v>
+        <v>0.0646005966593584</v>
       </c>
       <c r="C2">
-        <v>0.4818745356995571</v>
+        <v>0.4743505096951567</v>
       </c>
       <c r="D2">
-        <v>0.576044864471689</v>
+        <v>0.5536090028381865</v>
       </c>
       <c r="E2">
-        <v>0.7589761949308351</v>
+        <v>0.7440490594296767</v>
       </c>
       <c r="F2">
-        <v>0.7768888504024367</v>
+        <v>0.7595443068293734</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9136948592515964</v>
+        <v>0.8918866930342709</v>
       </c>
       <c r="C3">
-        <v>0.9675995196481125</v>
+        <v>0.9430961204109612</v>
       </c>
       <c r="D3">
-        <v>2.483814803651008</v>
+        <v>2.371025881809898</v>
       </c>
       <c r="E3">
-        <v>1.576012310754903</v>
+        <v>1.539813586707786</v>
       </c>
       <c r="F3">
-        <v>1.319312818788126</v>
+        <v>1.287823136188919</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4916122337106197</v>
+        <v>0.4882202679668279</v>
       </c>
       <c r="C4">
-        <v>1.229807526656826</v>
+        <v>1.18756317707376</v>
       </c>
       <c r="D4">
-        <v>3.82954030247179</v>
+        <v>3.637589225426803</v>
       </c>
       <c r="E4">
-        <v>1.956921128321678</v>
+        <v>1.907246503582272</v>
       </c>
       <c r="F4">
-        <v>1.949078799820741</v>
+        <v>1.894221823688656</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5799435833106514</v>
+        <v>0.5864295595391767</v>
       </c>
       <c r="C5">
-        <v>0.7934584638365062</v>
+        <v>0.7880825022580396</v>
       </c>
       <c r="D5">
-        <v>0.8507768634338876</v>
+        <v>0.8304769580234592</v>
       </c>
       <c r="E5">
-        <v>0.9223756628586248</v>
+        <v>0.9113050850420288</v>
       </c>
       <c r="F5">
-        <v>0.7393205986487575</v>
+        <v>0.7177740073227471</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6590368237621897</v>
+        <v>0.659487078565832</v>
       </c>
       <c r="C6">
-        <v>0.8083201108302489</v>
+        <v>0.7999889958063582</v>
       </c>
       <c r="D6">
-        <v>1.199350700064931</v>
+        <v>1.154946370456449</v>
       </c>
       <c r="E6">
-        <v>1.095148711392627</v>
+        <v>1.074684311998853</v>
       </c>
       <c r="F6">
-        <v>0.9033396791848202</v>
+        <v>0.8746568535088345</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4132160258949129</v>
+        <v>0.4265915177156135</v>
       </c>
       <c r="C7">
-        <v>0.4992461412908609</v>
+        <v>0.5072447508993148</v>
       </c>
       <c r="D7">
-        <v>0.3361792933339557</v>
+        <v>0.3397562009063173</v>
       </c>
       <c r="E7">
-        <v>0.5798097044151259</v>
+        <v>0.582886095996737</v>
       </c>
       <c r="F7">
-        <v>0.4210087494139653</v>
+        <v>0.4102368459569428</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2581625357298254</v>
+        <v>0.2793977770427775</v>
       </c>
       <c r="C8">
-        <v>0.4570210291326423</v>
+        <v>0.4649990375520733</v>
       </c>
       <c r="D8">
-        <v>0.3209986608442351</v>
+        <v>0.3217702627042455</v>
       </c>
       <c r="E8">
-        <v>0.5665674371548678</v>
+        <v>0.5672479728515964</v>
       </c>
       <c r="F8">
-        <v>0.523370050277485</v>
+        <v>0.5109939315628624</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4258225397788335</v>
+        <v>0.4357956396000112</v>
       </c>
       <c r="C9">
-        <v>0.4258225397788335</v>
+        <v>0.4357956396000112</v>
       </c>
       <c r="D9">
-        <v>0.2409113678315511</v>
+        <v>0.24508204164741</v>
       </c>
       <c r="E9">
-        <v>0.4908272280869829</v>
+        <v>0.4950576144727096</v>
       </c>
       <c r="F9">
-        <v>0.2573077112629825</v>
+        <v>0.2463343710656916</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0646005966593584</v>
+        <v>-0.03874681001824887</v>
       </c>
       <c r="C2">
-        <v>0.4743505096951567</v>
+        <v>0.5532001388111951</v>
       </c>
       <c r="D2">
-        <v>0.5536090028381865</v>
+        <v>0.7502571438541419</v>
       </c>
       <c r="E2">
-        <v>0.7440490594296767</v>
+        <v>0.866173853134659</v>
       </c>
       <c r="F2">
-        <v>0.7595443068293734</v>
+        <v>0.8856697285236464</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8918866930342709</v>
+        <v>0.7741633195380929</v>
       </c>
       <c r="C3">
-        <v>0.9430961204109612</v>
+        <v>0.9734393599335567</v>
       </c>
       <c r="D3">
-        <v>2.371025881809898</v>
+        <v>2.377041849710642</v>
       </c>
       <c r="E3">
-        <v>1.539813586707786</v>
+        <v>1.541765821942698</v>
       </c>
       <c r="F3">
-        <v>1.287823136188919</v>
+        <v>1.366235212037819</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4882202679668279</v>
+        <v>0.6367776243981704</v>
       </c>
       <c r="C4">
-        <v>1.18756317707376</v>
+        <v>1.301153388049756</v>
       </c>
       <c r="D4">
-        <v>3.637589225426803</v>
+        <v>4.054070903386229</v>
       </c>
       <c r="E4">
-        <v>1.907246503582272</v>
+        <v>2.013472349794312</v>
       </c>
       <c r="F4">
-        <v>1.894221823688656</v>
+        <v>1.959748952894371</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5864295595391767</v>
+        <v>0.7664563126367501</v>
       </c>
       <c r="C5">
-        <v>0.7880825022580396</v>
+        <v>0.9574959425809361</v>
       </c>
       <c r="D5">
-        <v>0.8304769580234592</v>
+        <v>1.631796648714983</v>
       </c>
       <c r="E5">
-        <v>0.9113050850420288</v>
+        <v>1.277417961637843</v>
       </c>
       <c r="F5">
-        <v>0.7177740073227471</v>
+        <v>1.049933490516606</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.659487078565832</v>
+        <v>0.5932326787493827</v>
       </c>
       <c r="C6">
-        <v>0.7999889958063582</v>
+        <v>0.7851613914910194</v>
       </c>
       <c r="D6">
-        <v>1.154946370456449</v>
+        <v>1.106570861342902</v>
       </c>
       <c r="E6">
-        <v>1.074684311998853</v>
+        <v>1.051936719267325</v>
       </c>
       <c r="F6">
-        <v>0.8746568535088345</v>
+        <v>0.8938885739127869</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4265915177156135</v>
+        <v>0.3312469404061975</v>
       </c>
       <c r="C7">
-        <v>0.5072447508993148</v>
+        <v>0.547657782996088</v>
       </c>
       <c r="D7">
-        <v>0.3397562009063173</v>
+        <v>0.4036688942095937</v>
       </c>
       <c r="E7">
-        <v>0.582886095996737</v>
+        <v>0.6353494268586333</v>
       </c>
       <c r="F7">
-        <v>0.4102368459569428</v>
+        <v>0.558852289159396</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2793977770427775</v>
+        <v>0.3086347685158412</v>
       </c>
       <c r="C8">
-        <v>0.4649990375520733</v>
+        <v>0.4826359502433059</v>
       </c>
       <c r="D8">
-        <v>0.3217702627042455</v>
+        <v>0.3365528937250792</v>
       </c>
       <c r="E8">
-        <v>0.5672479728515964</v>
+        <v>0.580131789962487</v>
       </c>
       <c r="F8">
-        <v>0.5109939315628624</v>
+        <v>0.5073302392072996</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03874681001824887</v>
+        <v>-0.0328904471643869</v>
       </c>
       <c r="C2">
-        <v>0.5532001388111951</v>
+        <v>0.5333196778029073</v>
       </c>
       <c r="D2">
-        <v>0.7502571438541419</v>
+        <v>0.7180375425294315</v>
       </c>
       <c r="E2">
-        <v>0.866173853134659</v>
+        <v>0.847370959220005</v>
       </c>
       <c r="F2">
-        <v>0.8856697285236464</v>
+        <v>0.8657624727618437</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7741633195380929</v>
+        <v>0.7433139177476882</v>
       </c>
       <c r="C3">
-        <v>0.9734393599335567</v>
+        <v>0.9335319563069945</v>
       </c>
       <c r="D3">
-        <v>2.377041849710642</v>
+        <v>2.269408845553871</v>
       </c>
       <c r="E3">
-        <v>1.541765821942698</v>
+        <v>1.506455723064528</v>
       </c>
       <c r="F3">
-        <v>1.366235212037819</v>
+        <v>1.34113760941619</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6367776243981704</v>
+        <v>0.6134147056512439</v>
       </c>
       <c r="C4">
-        <v>1.301153388049756</v>
+        <v>1.246153528176564</v>
       </c>
       <c r="D4">
-        <v>4.054070903386229</v>
+        <v>3.862037130511047</v>
       </c>
       <c r="E4">
-        <v>2.013472349794312</v>
+        <v>1.965206638120034</v>
       </c>
       <c r="F4">
-        <v>1.959748952894371</v>
+        <v>1.913125062789136</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7664563126367501</v>
+        <v>0.7335783307237345</v>
       </c>
       <c r="C5">
-        <v>0.9574959425809361</v>
+        <v>0.9150659791707112</v>
       </c>
       <c r="D5">
-        <v>1.631796648714983</v>
+        <v>1.550799740563746</v>
       </c>
       <c r="E5">
-        <v>1.277417961637843</v>
+        <v>1.245311101919415</v>
       </c>
       <c r="F5">
-        <v>1.049933490516606</v>
+        <v>1.032453681008359</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5932326787493827</v>
+        <v>0.5855704103705083</v>
       </c>
       <c r="C6">
-        <v>0.7851613914910194</v>
+        <v>0.7673976119152168</v>
       </c>
       <c r="D6">
-        <v>1.106570861342902</v>
+        <v>1.058877139486538</v>
       </c>
       <c r="E6">
-        <v>1.051936719267325</v>
+        <v>1.029017560339248</v>
       </c>
       <c r="F6">
-        <v>0.8938885739127869</v>
+        <v>0.8693453554164892</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3312469404061975</v>
+        <v>0.330622110383631</v>
       </c>
       <c r="C7">
-        <v>0.547657782996088</v>
+        <v>0.5350101283851942</v>
       </c>
       <c r="D7">
-        <v>0.4036688942095937</v>
+        <v>0.3869317334201719</v>
       </c>
       <c r="E7">
-        <v>0.6353494268586333</v>
+        <v>0.6220383697330671</v>
       </c>
       <c r="F7">
-        <v>0.558852289159396</v>
+        <v>0.5421728378544564</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3086347685158412</v>
+        <v>0.3086443866032553</v>
       </c>
       <c r="C8">
-        <v>0.4826359502433059</v>
+        <v>0.4724102046996926</v>
       </c>
       <c r="D8">
-        <v>0.3365528937250792</v>
+        <v>0.3223648632272353</v>
       </c>
       <c r="E8">
-        <v>0.580131789962487</v>
+        <v>0.5677718408192108</v>
       </c>
       <c r="F8">
-        <v>0.5073302392072996</v>
+        <v>0.4912203934700611</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4357956396000112</v>
+        <v>0.4194793363000103</v>
       </c>
       <c r="C9">
-        <v>0.4357956396000112</v>
+        <v>0.4194793363000103</v>
       </c>
       <c r="D9">
-        <v>0.24508204164741</v>
+        <v>0.2294585381767924</v>
       </c>
       <c r="E9">
-        <v>0.4950576144727096</v>
+        <v>0.4790183067240671</v>
       </c>
       <c r="F9">
-        <v>0.2463343710656916</v>
+        <v>0.2415757918202041</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4193848579439485</v>
+        <v>0.3901940930488053</v>
       </c>
       <c r="C10">
-        <v>0.4225699878806203</v>
+        <v>0.3929242044230954</v>
       </c>
       <c r="D10">
-        <v>0.2438754788630577</v>
+        <v>0.2156427374586396</v>
       </c>
       <c r="E10">
-        <v>0.4938375024874658</v>
+        <v>0.4643734891858488</v>
       </c>
       <c r="F10">
-        <v>0.2856399547480538</v>
+        <v>0.2719494899361581</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
